--- a/Files/Modules/Imperial Authority/Tables/Equipment/Weapons.xlsx
+++ b/Files/Modules/Imperial Authority/Tables/Equipment/Weapons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TYPE</t>
   </si>
@@ -46,6 +46,39 @@
   </si>
   <si>
     <t>This file will provide and overview of the weapons added by the IMPERIAL AUTHORITY module</t>
+  </si>
+  <si>
+    <t>Imperial General Gladius</t>
+  </si>
+  <si>
+    <t>Imperial Mace</t>
+  </si>
+  <si>
+    <t>Imperial Sword</t>
+  </si>
+  <si>
+    <t>Imperial Greatsword</t>
+  </si>
+  <si>
+    <t>Imperial Dagger</t>
+  </si>
+  <si>
+    <t>Imperial Waraxe</t>
+  </si>
+  <si>
+    <t>Imperial Battleaxe</t>
+  </si>
+  <si>
+    <t>Imperial Warhammer</t>
+  </si>
+  <si>
+    <t>Imperial Bow</t>
+  </si>
+  <si>
+    <t>Imperial Arrow</t>
+  </si>
+  <si>
+    <t>Imperial Dragon Blade</t>
   </si>
 </sst>
 </file>
@@ -366,14 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,6 +459,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
